--- a/Weight Test.xlsx
+++ b/Weight Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D38C1F4-510F-42C3-9400-67203C41A6B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46107067-40EB-4537-8E21-4D6B69292979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D6049373-4415-4BCA-BF35-837BA02C206A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{D6049373-4415-4BCA-BF35-837BA02C206A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Front Door Mat</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t>20/4/2019</t>
+  </si>
+  <si>
+    <t>21/4/2019</t>
+  </si>
+  <si>
+    <t>Conservatory Floor</t>
   </si>
 </sst>
 </file>
@@ -52,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -85,14 +94,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,22 +419,26 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="2">
-        <v>43575</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -435,149 +448,182 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>65.5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>65.2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>65.7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>66</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>65.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>66</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>65.900000000000006</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>47.7</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>66.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>66.099999999999994</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>66</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <f>AVERAGE(C3:C12)</f>
         <v>65.84</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <f>AVERAGE(D3:D12)</f>
         <v>46.309999999999995</v>
       </c>
-      <c r="E14" s="4" t="e">
+      <c r="E14" s="2">
         <f>AVERAGE(E3:E12)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <f>_xlfn.STDEV.S(C3:C12)</f>
         <v>0.37178249316263062</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f>_xlfn.STDEV.S(D3:D12)</f>
         <v>1.3370365240585858</v>
       </c>
-      <c r="E15" s="3" t="e">
+      <c r="E15" s="1">
         <f>_xlfn.STDEV.S(E3:E12)</f>
-        <v>#DIV/0!</v>
+        <v>0.53499740393970296</v>
       </c>
     </row>
   </sheetData>
